--- a/USDFramework/Data.xlsx
+++ b/USDFramework/Data.xlsx
@@ -4,32 +4,59 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000"/>
+    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateNewCase" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Some description</t>
+  </si>
+  <si>
+    <t>MyCase</t>
+  </si>
   <si>
     <t>Column1</t>
   </si>
   <si>
+    <t>Customer</t>
+  </si>
+  <si>
     <t>Column2</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CaseTitle</t>
+  </si>
+  <si>
+    <t>Coho Winery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -55,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,7 +385,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection activeCell="$B$2" sqref="$B$2:$B$2"/>
     </sheetView>
   </sheetViews>
@@ -365,10 +393,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection/>
+  <printOptions/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="$A$1" sqref="$A$1:$C$1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
